--- a/data/Mathematiques.xlsx
+++ b/data/Mathematiques.xlsx
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>11.8</v>
       </c>
       <c r="E2" t="n">
-        <v>6.9</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="5">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="5">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="5">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.9</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="5">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="5">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="5">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="5">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="5">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="5">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="5">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.2</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="5">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16.9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="5">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="5">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="5">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="5">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="5">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>
